--- a/REVER_DailyTracker_20200903.xlsx
+++ b/REVER_DailyTracker_20200903.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F571B6-65CF-443E-8707-C5873E0D4973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E22AC3-43E9-4D80-AB93-DA2EF0913771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1194,7 +1194,9 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>44077</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
